--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,127 +49,142 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>loved</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>gift</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>tea</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>old</t>
+    <t>highly</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>keeps</t>
+    <t>pan</t>
   </si>
   <si>
     <t>new</t>
@@ -178,49 +193,46 @@
     <t>works</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>every</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>hot</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -584,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3643410852713178</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.303030303030303</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +765,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8730650154798761</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>564</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>564</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +817,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8405797101449275</v>
+        <v>0.890625</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +843,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7954545454545454</v>
+        <v>0.8699690402476781</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>562</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>562</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -849,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -857,13 +869,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -875,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -883,13 +895,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7111111111111111</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -901,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -909,13 +921,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.7012987012987013</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -927,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -935,13 +947,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6986301369863014</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -953,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -961,13 +973,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6813559322033899</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L13">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M13">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -979,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -987,13 +999,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6476725521669342</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L14">
-        <v>807</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>807</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1005,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>439</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1013,13 +1025,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.625</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1031,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1039,13 +1051,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.625</v>
+        <v>0.6348314606741573</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>791</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>791</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1057,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1065,13 +1077,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6197183098591549</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1083,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1091,13 +1103,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5918367346938775</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1109,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1117,13 +1129,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5882352941176471</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1135,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1143,13 +1155,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5614035087719298</v>
+        <v>0.609375</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1169,13 +1181,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5571428571428572</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1187,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1195,13 +1207,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5542168674698795</v>
+        <v>0.5885714285714285</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1213,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1221,13 +1233,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5538461538461539</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1239,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1247,13 +1259,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5485714285714286</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L24">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1265,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1273,13 +1285,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5389221556886228</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L25">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1291,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1299,13 +1311,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5384615384615384</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1317,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1325,13 +1337,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5288461538461539</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L27">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1343,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1351,13 +1363,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5263157894736842</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1369,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1377,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5238095238095238</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1395,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1403,25 +1415,25 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4871794871794872</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L30">
+        <v>60</v>
+      </c>
+      <c r="M30">
+        <v>60</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>57</v>
-      </c>
-      <c r="M30">
-        <v>57</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1429,13 +1441,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.47</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1447,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1455,13 +1467,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.48</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1473,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1481,13 +1493,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4216867469879518</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L33">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1499,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>96</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1507,13 +1519,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4060150375939849</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L34">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M34">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1525,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1533,13 +1545,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.3627450980392157</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L35">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1551,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>260</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1559,13 +1571,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3579766536964981</v>
+        <v>0.4060150375939849</v>
       </c>
       <c r="L36">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="M36">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1577,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1585,13 +1597,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.3513513513513514</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1603,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1611,13 +1623,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.316546762589928</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1629,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>95</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1637,13 +1649,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.310958904109589</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="L39">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="M39">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1655,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>503</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1663,13 +1675,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3082706766917293</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1681,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1689,13 +1701,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.2966507177033493</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L41">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M41">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1707,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1715,13 +1727,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.2486544671689989</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L42">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1733,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>698</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1741,13 +1753,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.2185430463576159</v>
+        <v>0.3054794520547945</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1759,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>118</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1767,7 +1779,7 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2147651006711409</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L44">
         <v>32</v>
@@ -1785,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1793,13 +1805,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.2066225165562914</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L45">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="M45">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1811,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>599</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1819,13 +1831,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1880877742946709</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L46">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M46">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1837,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>259</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1845,25 +1857,25 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1810810810810811</v>
+        <v>0.2282023681377826</v>
       </c>
       <c r="L47">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="M47">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="N47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>303</v>
+        <v>717</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1871,13 +1883,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1768292682926829</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1889,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>135</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1897,13 +1909,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1764705882352941</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L49">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1915,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>644</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1923,13 +1935,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1549815498154982</v>
+        <v>0.1973509933774834</v>
       </c>
       <c r="L50">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="M50">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1941,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>229</v>
+        <v>606</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1949,13 +1961,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1428571428571428</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1967,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1975,25 +1987,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.137037037037037</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L52">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>233</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2001,13 +2013,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1359649122807018</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L53">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="M53">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2019,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>394</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2027,25 +2039,25 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1339712918660287</v>
+        <v>0.1535087719298246</v>
       </c>
       <c r="L54">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="M54">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2053,25 +2065,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.1305841924398626</v>
+        <v>0.1534653465346535</v>
       </c>
       <c r="L55">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2079,25 +2091,25 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.1292682926829268</v>
+        <v>0.1455847255369928</v>
       </c>
       <c r="L56">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="M56">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2105,13 +2117,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1204545454545455</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="L57">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2123,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>387</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2131,25 +2143,25 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.0718954248366013</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L58">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="M58">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="N58">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>994</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2157,25 +2169,25 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.06743185078909612</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L59">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N59">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>650</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2183,13 +2195,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.06088560885608856</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L60">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M60">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2201,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>509</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2209,25 +2221,129 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.04242424242424243</v>
+        <v>0.1227272727272727</v>
       </c>
       <c r="L61">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M61">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>1106</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K62">
+        <v>0.121654501216545</v>
+      </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62">
+        <v>50</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K63">
+        <v>0.07462686567164178</v>
+      </c>
+      <c r="L63">
+        <v>80</v>
+      </c>
+      <c r="M63">
+        <v>80</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64">
+        <v>0.06743185078909612</v>
+      </c>
+      <c r="L64">
+        <v>47</v>
+      </c>
+      <c r="M64">
+        <v>48</v>
+      </c>
+      <c r="N64">
+        <v>0.98</v>
+      </c>
+      <c r="O64">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K65">
+        <v>0.0398959236773634</v>
+      </c>
+      <c r="L65">
+        <v>46</v>
+      </c>
+      <c r="M65">
+        <v>50</v>
+      </c>
+      <c r="N65">
+        <v>0.92</v>
+      </c>
+      <c r="O65">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
